--- a/RESULTS/2018/A  SET 2 [0..20] Double/Cov Fit .xlsx
+++ b/RESULTS/2018/A  SET 2 [0..20] Double/Cov Fit .xlsx
@@ -6,21 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 ethalon" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -385,149 +385,149 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="N1" s="1" t="n">
         <v>96</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>84</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6754239606335987</v>
+        <v>0.6529069759925719</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6648454844765482</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9505820244172065</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9290848602340163</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9072191693554912</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8700654616090197</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.795061629507733</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4509740909925645</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5328539587698208</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5199800197317569</v>
+        <v>0.6216429425810064</v>
       </c>
       <c r="O2" t="n">
-        <v>0.907270546683036</v>
+        <v>0.3241964368285459</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4294768031623119</v>
+        <v>0.3096200515342166</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.661477015158899</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.651258904705997</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9234779391389334</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9803466441467248</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9493567405421725</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9083886246513528</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8299612365793154</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5620078800336998</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6320122636312215</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="N3" t="n">
-        <v>0.616844954381496</v>
+        <v>0.5310893833853219</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8827778396327298</v>
+        <v>0.2352280036401782</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5353658332337842</v>
+        <v>0.2267930297559954</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -535,499 +535,499 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6007365113802857</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5911586100944305</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8469641275611728</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9760609081623347</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9354529132449528</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8906939906500613</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.809731809038689</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6432854863701999</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6912304857175258</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6740482152725317</v>
+        <v>0.6720653510598262</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8084588132706393</v>
+        <v>0.4052374807025663</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6117593952122827</v>
+        <v>0.3847138547322965</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6754239606335987</v>
+        <v>0.6529069759925719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.661477015158899</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6007365113802857</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000006</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997787492631566</v>
+        <v>0.9989666070673137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8447682217554133</v>
+        <v>0.7316533794663195</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7253878384603538</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8053611658152657</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8602447414756118</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9222706152711384</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5984118763689547</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7220109159764386</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7257414313719954</v>
+        <v>0.7351785758398868</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8981310837799437</v>
+        <v>0.3549666460324789</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6054010959544709</v>
+        <v>0.3459530790972106</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6648454844765482</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.651258904705997</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5911586100944305</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997787492631566</v>
+        <v>0.9989666070673137</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999897</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8353332045037684</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7155799149389087</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7962481241799945</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8521972588644865</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9165798501831944</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5964769278092756</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7200851012849063</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7243660465812695</v>
+        <v>0.7380652005790723</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8898424215389327</v>
+        <v>0.354633276026079</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6044003543069306</v>
+        <v>0.3453279757776429</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9505820244172065</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9234779391389334</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8469641275611728</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8447682217554133</v>
+        <v>0.7316533794663195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8353332045037684</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000000000000006</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9325532001981581</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9545696473334534</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9518722103633286</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9199001866297456</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5458413272934305</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6490531958844917</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6391717589488312</v>
+        <v>0.8748258011474904</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9924997517162589</v>
+        <v>0.5632380385005157</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5295829563536371</v>
+        <v>0.5636811054928964</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="n">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9290848602340163</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9803466441467248</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9760609081623347</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7253878384603538</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7155799149389087</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9325532001981581</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9883950344220015</v>
+        <v>0.9379871564010752</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9629640493528315</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9032387841865226</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6787685604961551</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7468238555484639</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7318831982922187</v>
+        <v>0.9511500479183445</v>
       </c>
       <c r="O8" t="n">
-        <v>0.908945334075702</v>
+        <v>0.7753962120974253</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6520570377776286</v>
+        <v>0.8084184737937332</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9072191693554912</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9493567405421725</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9354529132449528</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8053611658152657</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7962481241799945</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9545696473334534</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9883950344220015</v>
+        <v>0.9379871564010752</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9925016848467075</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9557071486057362</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7151903091200178</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7945439774726613</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7820349221077604</v>
+        <v>0.9608803975586127</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9474180971223538</v>
+        <v>0.749419912203832</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6931197973260418</v>
+        <v>0.693626303412384</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8700654616090197</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9083886246513528</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8906939906500613</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8602447414756118</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8521972588644865</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9518722103633286</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9629640493528315</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9925016848467075</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9840783014178722</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7414699402852996</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="M10" t="n">
-        <v>0.828320598694376</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8183425677707441</v>
+        <v>0.8771881997753843</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9590263995348836</v>
+        <v>0.6182875010116156</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7240638260576532</v>
+        <v>0.5267337680169819</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>0.795061629507733</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8299612365793154</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.809731809038689</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9222706152711384</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9165798501831944</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9199001866297456</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9032387841865226</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9557071486057362</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9840783014178722</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7672733834738383</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8627581401651591</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8574173669626142</v>
+        <v>0.9539432874276519</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9472737719141834</v>
+        <v>0.8806530502382699</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7582693816862762</v>
+        <v>0.8745940866259534</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="n">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4509740909925645</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5620078800336998</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6432854863701999</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5984118763689547</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5964769278092756</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5458413272934305</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6787685604961551</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7151903091200178</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7414699402852996</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7672733834738383</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9809255237683107</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9793326468930856</v>
+        <v>0.937554304154833</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5723032669442297</v>
+        <v>0.8147515451282347</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9975730671318325</v>
+        <v>0.8524831066686207</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5328539587698208</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6320122636312215</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6912304857175258</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7220109159764386</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7200851012849063</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6490531958844917</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7468238555484639</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7945439774726613</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J13" t="n">
-        <v>0.828320598694376</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8627581401651591</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9809255237683107</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999873</v>
       </c>
       <c r="N13" t="n">
-        <v>0.999377438203327</v>
+        <v>0.7236842037052612</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6823364010778232</v>
+        <v>0.3380299591228654</v>
       </c>
       <c r="P13" t="n">
-        <v>0.980410954841521</v>
+        <v>0.3277707400912357</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1035,149 +1035,149 @@
         <v>96</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5199800197317569</v>
+        <v>0.6216429425810064</v>
       </c>
       <c r="C14" t="n">
-        <v>0.616844954381496</v>
+        <v>0.5310893833853219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6740482152725317</v>
+        <v>0.6720653510598262</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7257414313719954</v>
+        <v>0.7351785758398868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7243660465812695</v>
+        <v>0.7380652005790723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6391717589488312</v>
+        <v>0.8748258011474904</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7318831982922187</v>
+        <v>0.9511500479183445</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7820349221077604</v>
+        <v>0.9608803975586127</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8183425677707441</v>
+        <v>0.8771881997753843</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8574173669626142</v>
+        <v>0.9539432874276519</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9793326468930856</v>
+        <v>0.937554304154833</v>
       </c>
       <c r="M14" t="n">
-        <v>0.999377438203327</v>
+        <v>0.7236842037052612</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6745144707451509</v>
+        <v>0.7586941130605661</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9812384533320797</v>
+        <v>0.7918455543191328</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="B15" t="n">
-        <v>0.907270546683036</v>
+        <v>0.3241964368285459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8827778396327298</v>
+        <v>0.2352280036401782</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8084588132706393</v>
+        <v>0.4052374807025663</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8981310837799437</v>
+        <v>0.3549666460324789</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8898424215389327</v>
+        <v>0.354633276026079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9924997517162589</v>
+        <v>0.5632380385005157</v>
       </c>
       <c r="H15" t="n">
-        <v>0.908945334075702</v>
+        <v>0.7753962120974253</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9474180971223538</v>
+        <v>0.749419912203832</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9590263995348836</v>
+        <v>0.6182875010116156</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9472737719141834</v>
+        <v>0.8806530502382699</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5723032669442297</v>
+        <v>0.8147515451282347</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6823364010778232</v>
+        <v>0.3380299591228654</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6745144707451509</v>
+        <v>0.7586941130605661</v>
       </c>
       <c r="O15" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5595916031240147</v>
+        <v>0.792155094875299</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="n">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4294768031623119</v>
+        <v>0.3096200515342166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5353658332337842</v>
+        <v>0.2267930297559954</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6117593952122827</v>
+        <v>0.3847138547322965</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6054010959544709</v>
+        <v>0.3459530790972106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6044003543069306</v>
+        <v>0.3453279757776429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5295829563536371</v>
+        <v>0.5636811054928964</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6520570377776286</v>
+        <v>0.8084184737937332</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6931197973260418</v>
+        <v>0.693626303412384</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7240638260576532</v>
+        <v>0.5267337680169819</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7582693816862762</v>
+        <v>0.8745940866259534</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9975730671318325</v>
+        <v>0.8524831066686207</v>
       </c>
       <c r="M16" t="n">
-        <v>0.980410954841521</v>
+        <v>0.3277707400912357</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9812384533320797</v>
+        <v>0.7918455543191328</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5595916031240147</v>
+        <v>0.792155094875299</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999977</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1201,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -1216,53 +1216,53 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>186</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5247462165808213</v>
+        <v>0.8919521213509776</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6072092695453044</v>
+        <v>0.8017079325473485</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6363668702081905</v>
+        <v>0.92301105859687</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.709758879942777</v>
+        <v>0.8286091637227808</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1316,45 +1316,45 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7205425608417607</v>
+        <v>0.7486346588119061</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5247462165808213</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6072092695453044</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6363668702081905</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.709758879942777</v>
+        <v>0.8286091637227808</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7205425608417607</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000000000000001</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -1395,42 +1395,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1438,19 +1438,19 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1458,19 +1458,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1478,19 +1478,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1514,10 +1514,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -1528,36 +1528,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000015</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025687</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416826</v>
+        <v>0.9733157113302229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6754239606336012</v>
+        <v>0.6631966647266478</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025687</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000003</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397237</v>
+        <v>0.8936308015620035</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6614770151588991</v>
+        <v>0.6764856013365901</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1565,16 +1565,16 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416826</v>
+        <v>0.9733157113302229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397237</v>
+        <v>0.8936308015620035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6007365113802855</v>
+        <v>0.6026969520646711</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1582,13 +1582,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6754239606336012</v>
+        <v>0.6631966647266478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6614770151588991</v>
+        <v>0.6764856013365901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6007365113802855</v>
+        <v>0.6026969520646711</v>
       </c>
       <c r="E5" t="n">
         <v>1.000000000000004</v>
@@ -1615,55 +1615,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>61</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9864331169749048</v>
+        <v>0.9818847848493917</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9579617522570054</v>
+        <v>0.8864581422855324</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9864331169749048</v>
+        <v>0.9818847848493917</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9896237134998316</v>
+        <v>0.797905339542308</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9579617522570054</v>
+        <v>0.8864581422855324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9896237134998316</v>
+        <v>0.797905339542308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1687,29 +1687,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>94</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9769161220307665</v>
+        <v>0.9776843311968452</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9769161220307665</v>
+        <v>0.9776843311968452</v>
       </c>
       <c r="C3" t="n">
         <v>1.000000000000001</v>
@@ -1756,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6888837336765172</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1776,19 +1776,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6752326047793487</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1796,19 +1796,19 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1816,19 +1816,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1836,19 +1836,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1872,140 +1872,140 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>81</v>
-      </c>
       <c r="N1" s="1" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>50</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.6529069759925719</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7637683966491798</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.907270546683036</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7322075884044374</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5853232435903808</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9253896280683322</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7636874018711135</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="N2" t="n">
-        <v>0.795061629507733</v>
+        <v>0.6216429425810064</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7622713209658588</v>
+        <v>0.3241964368285459</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7463681108279664</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8827778396327298</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.833186391211984</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6941426400028585</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9797516591789875</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7975437785794752</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8299612365793154</v>
+        <v>0.5310893833853219</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8526282531784857</v>
+        <v>0.2352280036401782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2013,563 +2013,563 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6803058775514293</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8084588132706393</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8689145472584408</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7621740756650573</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9726716766156476</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7768562642438633</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.809731809038689</v>
+        <v>0.6720653510598262</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8913498737269437</v>
+        <v>0.4052374807025663</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.6529069759925719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9927104444018631</v>
+        <v>0.9989666070673139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9839110114844287</v>
+        <v>0.7316533794663197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.818128514960794</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7205892141797958</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8557022105380705</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9613735288766789</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="N5" t="n">
-        <v>0.962506152764513</v>
+        <v>0.7351785758398868</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8343755909315212</v>
+        <v>0.3549666460324789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7637683966491798</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7463681108279664</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6803058775514293</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9927104444018631</v>
+        <v>0.9989666070673139</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999974</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9560581099486908</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7994179177993576</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7172682779377514</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8078293291630819</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.989427962586807</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="L6" t="n">
-        <v>0.376666223213413</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9617636844283121</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="N6" t="n">
-        <v>0.955210601330954</v>
+        <v>0.7380652005790723</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8117094975874565</v>
+        <v>0.354633276026079</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.907270546683036</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8827778396327298</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8084588132706393</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9839110114844287</v>
+        <v>0.7316533794663197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9560581099486908</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000000000000002</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8242621940884712</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7058069287354283</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9101352436304433</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9074707178617052</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3426352496280791</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9350764378852553</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9472737719141834</v>
+        <v>0.8748258011474904</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8460217294283492</v>
+        <v>0.5632380385005157</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="n">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7322075884044374</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.833186391211984</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8689145472584408</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.818128514960794</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7994179177993576</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8242621940884712</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9388900756202012</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9197745694212218</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7632615689520895</v>
+        <v>0.9656113835649877</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6263067745722173</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9224041907665314</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9330808918418996</v>
+        <v>0.9511500479183445</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9820303359705915</v>
+        <v>0.7753962120974253</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="n">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5853232435903808</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6941426400028585</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7621740756650573</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7205892141797958</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7172682779377514</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7058069287354283</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9388900756202012</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8059519647826831</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6993360120396386</v>
+        <v>0.9318966770749741</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8214961068575631</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8708352482381958</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8724576932893123</v>
+        <v>0.9608803975586127</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9578136299528425</v>
+        <v>0.749419912203832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9253896280683322</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9797516591789875</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9726716766156476</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8557022105380705</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8078293291630819</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9101352436304433</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9197745694212218</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8059519647826831</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7430721811202042</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4526423404996039</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8811905726605812</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9076982150964819</v>
+        <v>0.8771881997753843</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9352832124840968</v>
+        <v>0.6182875010116156</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.989427962586807</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9074707178617052</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7632615689520895</v>
+        <v>0.9656113835649877</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6993360120396386</v>
+        <v>0.9318966770749741</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7430721811202042</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="M11" t="n">
-        <v>0.943658839651858</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9284510910733837</v>
+        <v>0.9539432874276519</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7709852256794204</v>
+        <v>0.8806530502382699</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.376666223213413</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3426352496280791</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6263067745722173</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8214961068575631</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4526423404996039</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5374964703838631</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5302074074058359</v>
+        <v>0.937554304154833</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6623722891370076</v>
+        <v>0.8147515451282346</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7636874018711135</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7975437785794752</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7768562642438633</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9613735288766789</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9617636844283121</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9350764378852553</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9224041907665314</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8708352482381958</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8811905726605812</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="K13" t="n">
-        <v>0.943658839651858</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5374964703838631</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9978239912641176</v>
+        <v>0.7236842037052611</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9319447071273624</v>
+        <v>0.3380299591228654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B14" t="n">
-        <v>0.795061629507733</v>
+        <v>0.6216429425810064</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8299612365793154</v>
+        <v>0.5310893833853219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.809731809038689</v>
+        <v>0.6720653510598262</v>
       </c>
       <c r="E14" t="n">
-        <v>0.962506152764513</v>
+        <v>0.7351785758398868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.955210601330954</v>
+        <v>0.7380652005790723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9472737719141834</v>
+        <v>0.8748258011474904</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9330808918418996</v>
+        <v>0.9511500479183445</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8724576932893123</v>
+        <v>0.9608803975586127</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9076982150964819</v>
+        <v>0.8771881997753843</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9284510910733837</v>
+        <v>0.9539432874276519</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5302074074058359</v>
+        <v>0.937554304154833</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9978239912641176</v>
+        <v>0.7236842037052611</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9447488703605269</v>
+        <v>0.7586941130605661</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="n">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7622713209658588</v>
+        <v>0.3241964368285459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8526282531784857</v>
+        <v>0.2352280036401782</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8913498737269437</v>
+        <v>0.4052374807025663</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8343755909315212</v>
+        <v>0.3549666460324789</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8117094975874565</v>
+        <v>0.354633276026079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8460217294283492</v>
+        <v>0.5632380385005157</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9820303359705915</v>
+        <v>0.7753962120974253</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9578136299528425</v>
+        <v>0.749419912203832</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9352832124840968</v>
+        <v>0.6182875010116156</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7709852256794204</v>
+        <v>0.8806530502382699</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6623722891370076</v>
+        <v>0.8147515451282346</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9319447071273624</v>
+        <v>0.3380299591228654</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9447488703605269</v>
+        <v>0.7586941130605661</v>
       </c>
       <c r="O15" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2593,131 +2593,131 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>50</v>
-      </c>
       <c r="N1" s="1" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.6529069759925719</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6754239606335987</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6255641163523942</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9230666930863134</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2678589165678286</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7891861826905453</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7622713209658588</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7636874018711135</v>
+        <v>0.6216429425810064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.661477015158899</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6949160082257106</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9766596615142732</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3658311808129501</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9007648836821727</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8526282531784857</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7975437785794752</v>
+        <v>0.5310893833853219</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2725,483 +2725,483 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6007365113802857</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6949245825378899</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.963851732272194</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4532926228980741</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9621178792422905</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8913498737269437</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7768562642438633</v>
+        <v>0.6720653510598262</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.6529069759925719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9590828154842541</v>
+        <v>0.9989666070673139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8500726010908813</v>
+        <v>0.7316533794663195</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8651775897844207</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3771844881019649</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7360209960084696</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8343755909315212</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9613735288766789</v>
+        <v>0.7351785758398868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6754239606335987</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.661477015158899</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6007365113802857</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9590828154842541</v>
+        <v>0.9989666070673139</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000006</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8647082131216979</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7451125334481171</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3908743967261304</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6294751494052973</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9997035371452002</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3824090868801074</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.763061567534923</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="N6" t="n">
-        <v>0.938786220509148</v>
+        <v>0.7380652005790723</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6255641163523942</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6949160082257106</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6949245825378899</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8500726010908813</v>
+        <v>0.7316533794663195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8647082131216979</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8157557700211301</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6383337875328657</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7860057287127907</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8662612642451276</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6263628693714863</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8956246752723604</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9394432815552822</v>
+        <v>0.8748258011474904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9230666930863134</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9766596615142732</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.963851732272194</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8651775897844207</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7451125334481171</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8157557700211301</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4625710506770645</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9427759124858188</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7560390614186476</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4475727006807055</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9325452646412834</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8880774763628863</v>
+        <v>0.9511500479183445</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2678589165678286</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3658311808129501</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4532926228980741</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3771844881019649</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3908743967261304</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6383337875328657</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4625710506770645</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6202787502440056</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3909844170490057</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9993329661096731</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6785217774148002</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5502743114626865</v>
+        <v>0.9608803975586127</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7891861826905453</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9007648836821727</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9621178792422905</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7360209960084696</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6294751494052973</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7860057287127907</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9427759124858188</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6202787502440056</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6391817024469276</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6030360871262852</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9652734428507137</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8311993488446757</v>
+        <v>0.8771881997753843</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997035371452002</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8662612642451276</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7560390614186476</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3909844170490057</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6391817024469276</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000004</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7709852256794204</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="N11" t="n">
-        <v>0.943658839651858</v>
+        <v>0.9539432874276519</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3824090868801074</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6263628693714863</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4475727006807055</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9993329661096731</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6030360871262852</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6623722891370076</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5374964703838631</v>
+        <v>0.937554304154833</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7622713209658588</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8526282531784857</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8913498737269437</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8343755909315212</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.763061567534923</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8956246752723604</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9325452646412834</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6785217774148002</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9652734428507137</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7709852256794204</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6623722891370076</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9319447071273624</v>
+        <v>0.7236842037052611</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7636874018711135</v>
+        <v>0.6216429425810064</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7975437785794752</v>
+        <v>0.5310893833853219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7768562642438633</v>
+        <v>0.6720653510598262</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9613735288766789</v>
+        <v>0.7351785758398868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.938786220509148</v>
+        <v>0.7380652005790723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9394432815552822</v>
+        <v>0.8748258011474904</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8880774763628863</v>
+        <v>0.9511500479183445</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5502743114626865</v>
+        <v>0.9608803975586127</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8311993488446757</v>
+        <v>0.8771881997753843</v>
       </c>
       <c r="K14" t="n">
-        <v>0.943658839651858</v>
+        <v>0.9539432874276519</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5374964703838631</v>
+        <v>0.937554304154833</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9319447071273624</v>
+        <v>0.7236842037052611</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3225,122 +3225,122 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.825633246057463</v>
+        <v>0.6529069759925721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7292182059310404</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7071881311218524</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9230666930863134</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2678589165678286</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7891861826905453</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6782880819510891</v>
+        <v>0.8079295437362984</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7650329210232834</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7422550942976989</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9766596615142732</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3658311808129501</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9007648836821727</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7951411872019563</v>
+        <v>0.8267850914313252</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3348,409 +3348,409 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7389017583924591</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7160919950572713</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.963851732272194</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4532926228980741</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9621178792422905</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8626307374809855</v>
+        <v>0.7392237701601313</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.825633246057463</v>
+        <v>0.6529069759925721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.6659014464367958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.5929815411119159</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9531864551758109</v>
+        <v>0.9989666070673137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9471526803854682</v>
+        <v>0.7316533794663195</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8651775897844207</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3771844881019649</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7360209960084696</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7482547325337512</v>
+        <v>0.9527813690085206</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7292182059310404</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7650329210232834</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7389017583924591</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9531864551758109</v>
+        <v>0.9989666070673137</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9990319549364184</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.864674940417927</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5384483081294074</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7960331695150152</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9526846166760725</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5264856725108676</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="M6" t="n">
-        <v>0.855403098393396</v>
+        <v>0.9650137503925451</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7071881311218524</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7422550942976989</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7160919950572713</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9471526803854682</v>
+        <v>0.7316533794663195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9990319549364184</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8450235233326534</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5404382442761925</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7769348677625335</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9578364217800753</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5289964201587676</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8435265633329058</v>
+        <v>0.8286091637227812</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9230666930863134</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9766596615142732</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.963851732272194</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8651775897844207</v>
+        <v>0.5918834910955224</v>
       </c>
       <c r="F8" t="n">
-        <v>0.864674940417927</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8450235233326534</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4625710506770645</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9427759124858186</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7560390614186476</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4475727006807055</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.882962777891508</v>
+        <v>0.6326403013387579</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2678589165678286</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3658311808129501</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4532926228980741</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3771844881019649</v>
+        <v>0.7000981565324091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5384483081294074</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5404382442761925</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4625710506770645</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6202787502440056</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3909844170490057</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9993329661096731</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7214068073411686</v>
+        <v>0.7266623452216868</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7891861826905453</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9007648836821727</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9621178792422905</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7360209960084696</v>
+        <v>0.7923969512735529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7960331695150152</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7769348677625335</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9427759124858186</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6202787502440056</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6391817024469275</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6030360871262853</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="M10" t="n">
-        <v>0.959200231208684</v>
+        <v>0.8268191808034667</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5432742666885351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9526846166760725</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9578364217800753</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7560390614186476</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3909844170490057</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6391817024469275</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6929484338694734</v>
+        <v>0.5454066358931481</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5237634201258774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5264856725108676</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5289964201587676</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4475727006807055</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9993329661096731</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6030360871262853</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="M12" t="n">
-        <v>0.705717371709025</v>
+        <v>0.5571545969255752</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6782880819510891</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7951411872019563</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8626307374809855</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7482547325337512</v>
+        <v>0.9527813690085206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.855403098393396</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8435265633329058</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H13" t="n">
-        <v>0.882962777891508</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7214068073411686</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J13" t="n">
-        <v>0.959200231208684</v>
+        <v>0.8268191808034667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6929484338694734</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.705717371709025</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999877</v>
       </c>
     </row>
   </sheetData>
@@ -3774,10 +3774,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -3786,101 +3786,101 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7292182059310404</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7071881311218524</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9856850520608474</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2678589165678286</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7891861826905453</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7650329210232834</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7422550942976989</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9559922869398424</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3658311808129501</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9007648836821727</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3888,37 +3888,37 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832438</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7389017583924591</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7160919950572713</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8781053181189018</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4532926228980741</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9621178792422905</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3926,303 +3926,303 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832438</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9531864551758109</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9471526803854682</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9039267942242142</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3771844881019649</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7360209960084696</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5571545969255752</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7292182059310404</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7650329210232834</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7389017583924591</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9531864551758109</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9990319549364184</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8145201278016296</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5384483081294074</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7960331695150152</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9526846166760725</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5264856725108676</v>
+        <v>0.5318295287537227</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7071881311218524</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7422550942976989</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7160919950572713</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9471526803854682</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9990319549364184</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7948724376081913</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5404382442761925</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7769348677625335</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9578364217800753</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5289964201587676</v>
+        <v>0.8488089839214397</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9856850520608474</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9559922869398424</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8781053181189018</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9039267942242142</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8145201278016296</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7948724376081913</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999992</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3049320853800613</v>
+        <v>0.9379871564010752</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8045543466949006</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7822509706692652</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2934088619319865</v>
+        <v>0.9838371117064459</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2678589165678286</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3658311808129501</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4532926228980741</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3771844881019649</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5384483081294074</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5404382442761925</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3049320853800613</v>
+        <v>0.9379871564010752</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6202787502440056</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3909844170490057</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9993329661096731</v>
+        <v>0.9299297145899157</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7891861826905453</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9007648836821727</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9621178792422905</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7360209960084696</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7960331695150152</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7769348677625335</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8045543466949006</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6202787502440056</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6391817024469275</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6030360871262853</v>
+        <v>0.7982941713736795</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9526846166760725</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9578364217800753</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7822509706692652</v>
+        <v>0.9656113835649879</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3909844170490057</v>
+        <v>0.9318966770749743</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6391817024469275</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2569857013962581</v>
+        <v>0.5873846428401289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3523104156062586</v>
+        <v>0.4654092262718693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4376986089709146</v>
+        <v>0.6843278359830663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3662723823150443</v>
+        <v>0.5571545969255752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5264856725108676</v>
+        <v>0.5318295287537227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5289964201587676</v>
+        <v>0.8488089839214397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2934088619319865</v>
+        <v>0.9838371117064459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9993329661096731</v>
+        <v>0.9299297145899157</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6030360871262853</v>
+        <v>0.7982941713736795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3822655985906214</v>
+        <v>0.9805374548656575</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999979</v>
       </c>
     </row>
   </sheetData>
@@ -4246,10 +4246,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -4258,92 +4258,92 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7292182059310404</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7071881311218524</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9856850520608474</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3071626670156237</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.447624119383121</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7650329210232834</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7422550942976989</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9559922869398424</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4123806328212485</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5641027586341441</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4351,34 +4351,34 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7389017583924591</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7160919950572712</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8781053181189018</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.503722657314163</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6475432497662831</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4386,244 +4386,244 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9531864551758109</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9471526803854682</v>
+        <v>0.8286091637227808</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9039267942242142</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4233251313476517</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5735566588046844</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5454066358931481</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7292182059310404</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7650329210232834</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7389017583924591</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9531864551758109</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9990319549364184</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8145201278016296</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5885241989987564</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7372178360273827</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9526846166760725</v>
+        <v>0.5470685228254986</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7071881311218524</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7422550942976989</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7160919950572712</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9471526803854682</v>
+        <v>0.8286091637227808</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9990319549364184</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7948724376081912</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5896319560480002</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7347508471642124</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9578364217800753</v>
+        <v>0.8023192705492389</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9856850520608474</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9559922869398424</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8781053181189018</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9039267942242142</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8145201278016296</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7948724376081912</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999992</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3478354564236159</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4974179982812169</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7822509706692651</v>
+        <v>0.9656113835649877</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3071626670156237</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4123806328212485</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.503722657314163</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4233251313476517</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5885241989987564</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5896319560480002</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3478354564236159</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9507567604157442</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="K9" t="n">
-        <v>0.433709491923672</v>
+        <v>0.9318966770749741</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.447624119383121</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5641027586341441</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6475432497662831</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5735566588046844</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7372178360273827</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7347508471642124</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4974179982812169</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9507567604157442</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5675602485932294</v>
+        <v>0.8038019465171322</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.5246319811569758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.673425816517302</v>
+        <v>0.4119102016502281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6114224140877625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.5454066358931481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9526846166760725</v>
+        <v>0.5470685228254986</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9578364217800753</v>
+        <v>0.8023192705492389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7822509706692651</v>
+        <v>0.9656113835649877</v>
       </c>
       <c r="I11" t="n">
-        <v>0.433709491923672</v>
+        <v>0.9318966770749741</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5675602485932294</v>
+        <v>0.8038019465171322</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
   </sheetData>
@@ -4647,10 +4647,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -4662,80 +4662,80 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>246</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7550586551357723</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8096767830532225</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3071626670156237</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3256039920499</v>
+        <v>0.7546028220062784</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025697</v>
+        <v>0.9693740858878317</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7650429585874883</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.903019024448241</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4123806328212485</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4343802059149178</v>
+        <v>0.6731563655847073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4743,31 +4743,31 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.893630801562003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7193827665680773</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9332493481970746</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.503722657314163</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5281594329124875</v>
+        <v>0.774551516807234</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4775,31 +4775,31 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9825846521227949</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8270967755103495</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4233251313476517</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4399229245782714</v>
+        <v>0.8268191808034669</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4807,159 +4807,159 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.965405411915889</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9798800393445813</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7443369206637459</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.433709491923672</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4460380845800522</v>
+        <v>0.8021052364301755</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7550586551357723</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7650429585874883</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7193827665680773</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9825846521227949</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9798800393445813</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8507674196820354</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5143786412799771</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5302754777273131</v>
+        <v>0.9056023339974659</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8096767830532225</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.903019024448241</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9332493481970746</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8270967755103495</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7443369206637459</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8507674196820354</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6364960030669008</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6606077966308701</v>
+        <v>0.849850135114704</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3071626670156237</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4123806328212485</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.503722657314163</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4233251313476517</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.433709491923672</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5143786412799771</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6364960030669008</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9987443349305334</v>
+        <v>0.9159813079030288</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3256039920499</v>
+        <v>0.7546028220062784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4343802059149178</v>
+        <v>0.6731563655847073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5281594329124875</v>
+        <v>0.774551516807234</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4399229245782714</v>
+        <v>0.8268191808034669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4460380845800522</v>
+        <v>0.8021052364301755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5302754777273131</v>
+        <v>0.9056023339974659</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6606077966308701</v>
+        <v>0.849850135114704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9987443349305334</v>
+        <v>0.9159813079030288</v>
       </c>
       <c r="J10" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4983,10 +4983,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -4998,71 +4998,71 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.825633246057463</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.635410774258233</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5653120575031977</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3071626670156237</v>
+        <v>0.6938954206993518</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7096463400383863</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6703352292040209</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4123806328212485</v>
+        <v>0.5844287020867375</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5070,28 +5070,28 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7342960978437666</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7348356894129529</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.503722657314163</v>
+        <v>0.7514537465024724</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5099,28 +5099,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.825633246057463</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832439</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8485913482803795</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7209626838173483</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4233251313476517</v>
+        <v>0.7266623452216868</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5128,115 +5128,115 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8563074351204568</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7111580029552783</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="I6" t="n">
-        <v>0.433709491923672</v>
+        <v>0.7082229079248284</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.635410774258233</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7096463400383863</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7342960978437666</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8485913482803795</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8563074351204568</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000000000000002</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9669589282352092</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7732936519919341</v>
+        <v>0.9261224786081123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5653120575031977</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6703352292040209</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7348356894129529</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7209626838173483</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7111580029552783</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9669589282352092</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.885892325985087</v>
+        <v>0.9379871564010753</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3071626670156237</v>
+        <v>0.6938954206993518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4123806328212485</v>
+        <v>0.5844287020867375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.503722657314163</v>
+        <v>0.7514537465024724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4233251313476517</v>
+        <v>0.7266623452216868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.433709491923672</v>
+        <v>0.7082229079248284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7732936519919341</v>
+        <v>0.9261224786081123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.885892325985087</v>
+        <v>0.9379871564010753</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5260,10 +5260,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>30</v>
@@ -5275,62 +5275,62 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>53</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000009</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6535217093872869</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7414256881534611</v>
+        <v>0.6523449448153347</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9683056424025696</v>
+        <v>0.9693740858878319</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7077310386970174</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8017549577836389</v>
+        <v>0.5358362956047208</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5338,25 +5338,25 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8907281979416822</v>
+        <v>0.9733157113302238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9726455699397242</v>
+        <v>0.8936308015620029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7356794917832438</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6965072627115233</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7933218247727106</v>
+        <v>0.7375717972377156</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5364,25 +5364,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8256332460574632</v>
+        <v>0.8079295437362984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8053993951853902</v>
+        <v>0.8267850914313252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7356794917832438</v>
+        <v>0.7392237701601313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8974093796608021</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9161121195409657</v>
+        <v>0.6326403013387579</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5390,77 +5390,77 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6878102196441092</v>
+        <v>0.6752326047793487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.673425816517302</v>
+        <v>0.6888837336765172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6119361072315312</v>
+        <v>0.6140587494411959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9654054119158894</v>
+        <v>0.9650137503925451</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9191089573515947</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.892862867114762</v>
+        <v>0.6012679887244935</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6535217093872869</v>
+        <v>0.8919521213509776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7077310386970174</v>
+        <v>0.8017079325473485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6965072627115233</v>
+        <v>0.92301105859687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8974093796608021</v>
+        <v>0.8286091637227812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9191089573515947</v>
+        <v>0.7486346588119061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9831716333843331</v>
+        <v>0.8935100771522863</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7414256881534611</v>
+        <v>0.6523449448153347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8017549577836389</v>
+        <v>0.5358362956047208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7933218247727106</v>
+        <v>0.7375717972377156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9161121195409657</v>
+        <v>0.6326403013387579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.892862867114762</v>
+        <v>0.6012679887244935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9831716333843331</v>
+        <v>0.8935100771522863</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
   </sheetData>
